--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H2">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I2">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J2">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>63.77904851719499</v>
+        <v>462.3817187911827</v>
       </c>
       <c r="R2">
-        <v>574.011436654755</v>
+        <v>4161.435469120644</v>
       </c>
       <c r="S2">
-        <v>0.002358347502171456</v>
+        <v>0.01334354845422856</v>
       </c>
       <c r="T2">
-        <v>0.002358347502171456</v>
+        <v>0.01334354845422856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H3">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I3">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J3">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>5215.783585344568</v>
+        <v>7210.164827215852</v>
       </c>
       <c r="R3">
-        <v>46942.05226810111</v>
+        <v>64891.48344494267</v>
       </c>
       <c r="S3">
-        <v>0.1928631811910452</v>
+        <v>0.2080730699873939</v>
       </c>
       <c r="T3">
-        <v>0.1928631811910452</v>
+        <v>0.2080730699873939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H4">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I4">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J4">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>4842.72016531534</v>
+        <v>8530.917964631504</v>
       </c>
       <c r="R4">
-        <v>43584.48148783806</v>
+        <v>76778.26168168354</v>
       </c>
       <c r="S4">
-        <v>0.1790684757943307</v>
+        <v>0.2461877548223693</v>
       </c>
       <c r="T4">
-        <v>0.1790684757943307</v>
+        <v>0.2461877548223693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H5">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I5">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J5">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>838.7927251706933</v>
+        <v>814.1083475719053</v>
       </c>
       <c r="R5">
-        <v>7549.134526536241</v>
+        <v>7326.975128147147</v>
       </c>
       <c r="S5">
-        <v>0.03101590215339407</v>
+        <v>0.02349377957938596</v>
       </c>
       <c r="T5">
-        <v>0.03101590215339407</v>
+        <v>0.02349377957938595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H6">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I6">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J6">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>1954.028106718508</v>
+        <v>2759.578931520814</v>
       </c>
       <c r="R6">
-        <v>17586.25296046658</v>
+        <v>24836.21038368733</v>
       </c>
       <c r="S6">
-        <v>0.07225377944310364</v>
+        <v>0.0796367453330174</v>
       </c>
       <c r="T6">
-        <v>0.07225377944310364</v>
+        <v>0.0796367453330174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H7">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I7">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J7">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>4583.905550664881</v>
+        <v>12203.29438473136</v>
       </c>
       <c r="R7">
-        <v>41255.14995598393</v>
+        <v>109829.6494625822</v>
       </c>
       <c r="S7">
-        <v>0.169498329889413</v>
+        <v>0.3521662801669212</v>
       </c>
       <c r="T7">
-        <v>0.169498329889413</v>
+        <v>0.3521662801669212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H8">
         <v>0.181747</v>
       </c>
       <c r="I8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J8">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>0.105961590699</v>
+        <v>0.5557064769186668</v>
       </c>
       <c r="R8">
-        <v>0.9536543162909999</v>
+        <v>5.001358292268001</v>
       </c>
       <c r="S8">
-        <v>3.918124502652758E-06</v>
+        <v>1.603674193797793E-05</v>
       </c>
       <c r="T8">
-        <v>3.918124502652759E-06</v>
+        <v>1.603674193797793E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H9">
         <v>0.181747</v>
       </c>
       <c r="I9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J9">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
-        <v>8.665427570557778</v>
+        <v>8.66542757055778</v>
       </c>
       <c r="R9">
-        <v>77.98884813502001</v>
+        <v>77.98884813502002</v>
       </c>
       <c r="S9">
-        <v>0.0003204201056834985</v>
+        <v>0.0002500694728300119</v>
       </c>
       <c r="T9">
-        <v>0.0003204201056834986</v>
+        <v>0.0002500694728300119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H10">
         <v>0.181747</v>
       </c>
       <c r="I10">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J10">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>8.045625388854665</v>
+        <v>10.25275475726256</v>
       </c>
       <c r="R10">
-        <v>72.410628499692</v>
+        <v>92.27479281536301</v>
       </c>
       <c r="S10">
-        <v>0.000297501781233019</v>
+        <v>0.000295877030455522</v>
       </c>
       <c r="T10">
-        <v>0.000297501781233019</v>
+        <v>0.000295877030455522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H11">
         <v>0.181747</v>
       </c>
       <c r="I11">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J11">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>1.393558127507555</v>
+        <v>0.9784238071565557</v>
       </c>
       <c r="R11">
-        <v>12.542023147568</v>
+        <v>8.805814264409001</v>
       </c>
       <c r="S11">
-        <v>5.152937219269E-05</v>
+        <v>2.823564373110602E-05</v>
       </c>
       <c r="T11">
-        <v>5.152937219269001E-05</v>
+        <v>2.823564373110602E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H12">
         <v>0.181747</v>
       </c>
       <c r="I12">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J12">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>3.246394094490555</v>
+        <v>3.316558210440334</v>
       </c>
       <c r="R12">
-        <v>29.217546850415</v>
+        <v>29.84902389396301</v>
       </c>
       <c r="S12">
-        <v>0.000120041386345578</v>
+        <v>9.571021816774319E-05</v>
       </c>
       <c r="T12">
-        <v>0.000120041386345578</v>
+        <v>9.571021816774319E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H13">
         <v>0.181747</v>
       </c>
       <c r="I13">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J13">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>7.615634523482668</v>
+        <v>14.66634482667122</v>
       </c>
       <c r="R13">
-        <v>68.540710711344</v>
+        <v>131.997103440041</v>
       </c>
       <c r="S13">
-        <v>0.0002816020789501729</v>
+        <v>0.0004232457186082933</v>
       </c>
       <c r="T13">
-        <v>0.0002816020789501729</v>
+        <v>0.0004232457186082933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H14">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I14">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J14">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>11.763043108686</v>
+        <v>6.736114509193333</v>
       </c>
       <c r="R14">
-        <v>105.867387978174</v>
+        <v>60.62503058273999</v>
       </c>
       <c r="S14">
-        <v>0.0004349601315520668</v>
+        <v>0.0001943927856439452</v>
       </c>
       <c r="T14">
-        <v>0.0004349601315520669</v>
+        <v>0.0001943927856439451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H15">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I15">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J15">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>961.9693078902535</v>
+        <v>105.0398273384556</v>
       </c>
       <c r="R15">
-        <v>8657.723771012281</v>
+        <v>945.3584460461</v>
       </c>
       <c r="S15">
-        <v>0.03557058261565234</v>
+        <v>0.003031270417391795</v>
       </c>
       <c r="T15">
-        <v>0.03557058261565235</v>
+        <v>0.003031270417391795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H16">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I16">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J16">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>893.163623357432</v>
+        <v>124.2809521719961</v>
       </c>
       <c r="R16">
-        <v>8038.472610216889</v>
+        <v>1118.528569547965</v>
       </c>
       <c r="S16">
-        <v>0.03302636601120694</v>
+        <v>0.00358653649106232</v>
       </c>
       <c r="T16">
-        <v>0.03302636601120694</v>
+        <v>0.00358653649106232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H17">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I17">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J17">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>154.7021351811947</v>
+        <v>11.86017273016611</v>
       </c>
       <c r="R17">
-        <v>1392.319216630752</v>
+        <v>106.741554571495</v>
       </c>
       <c r="S17">
-        <v>0.005720395687414483</v>
+        <v>0.0003422643739337854</v>
       </c>
       <c r="T17">
-        <v>0.005720395687414484</v>
+        <v>0.0003422643739337854</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H18">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I18">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J18">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>360.3897735902567</v>
+        <v>40.20236727455166</v>
       </c>
       <c r="R18">
-        <v>3243.50796231231</v>
+        <v>361.821305470965</v>
       </c>
       <c r="S18">
-        <v>0.01332607403394512</v>
+        <v>0.001160171810220155</v>
       </c>
       <c r="T18">
-        <v>0.01332607403394512</v>
+        <v>0.001160171810220155</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H19">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I19">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J19">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>845.4293353730242</v>
+        <v>177.7812249581394</v>
       </c>
       <c r="R19">
-        <v>7608.864018357218</v>
+        <v>1600.031024623255</v>
       </c>
       <c r="S19">
-        <v>0.03126130300927753</v>
+        <v>0.005130463193230983</v>
       </c>
       <c r="T19">
-        <v>0.03126130300927753</v>
+        <v>0.005130463193230983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H20">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I20">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J20">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>3.702148038711</v>
+        <v>11.37022043220267</v>
       </c>
       <c r="R20">
-        <v>33.319332348399</v>
+        <v>102.331983889824</v>
       </c>
       <c r="S20">
-        <v>0.0001368937258041589</v>
+        <v>0.0003281251855479913</v>
       </c>
       <c r="T20">
-        <v>0.000136893725804159</v>
+        <v>0.0003281251855479913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H21">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I21">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J21">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>302.7577773540867</v>
+        <v>177.3019133461511</v>
       </c>
       <c r="R21">
-        <v>2724.81999618678</v>
+        <v>1595.71722011536</v>
       </c>
       <c r="S21">
-        <v>0.01119502508403671</v>
+        <v>0.005116631076909516</v>
       </c>
       <c r="T21">
-        <v>0.01119502508403671</v>
+        <v>0.005116631076909515</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H22">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I22">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J22">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>281.102766172732</v>
+        <v>209.7799584301983</v>
       </c>
       <c r="R22">
-        <v>2529.924895554588</v>
+        <v>1888.019625871784</v>
       </c>
       <c r="S22">
-        <v>0.01039429125817422</v>
+        <v>0.00605389211181933</v>
       </c>
       <c r="T22">
-        <v>0.01039429125817422</v>
+        <v>0.00605389211181933</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H23">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I23">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J23">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>48.68894902906133</v>
+        <v>20.01937142279023</v>
       </c>
       <c r="R23">
-        <v>438.200541261552</v>
+        <v>180.174342805112</v>
       </c>
       <c r="S23">
-        <v>0.001800363348084174</v>
+        <v>0.0005777249440171724</v>
       </c>
       <c r="T23">
-        <v>0.001800363348084174</v>
+        <v>0.0005777249440171723</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H24">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I24">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J24">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>113.4244158710483</v>
+        <v>67.85956164850934</v>
       </c>
       <c r="R24">
-        <v>1020.819742839435</v>
+        <v>610.7360548365841</v>
       </c>
       <c r="S24">
-        <v>0.004194076175072229</v>
+        <v>0.001958311308904763</v>
       </c>
       <c r="T24">
-        <v>0.004194076175072229</v>
+        <v>0.001958311308904763</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.116661</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H25">
-        <v>6.349983</v>
+        <v>3.718696</v>
       </c>
       <c r="I25">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J25">
-        <v>0.03755942775036122</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>266.0794937926241</v>
+        <v>300.0857116847209</v>
       </c>
       <c r="R25">
-        <v>2394.715444133617</v>
+        <v>2700.771405162488</v>
       </c>
       <c r="S25">
-        <v>0.009838778159189732</v>
+        <v>0.008659962259656477</v>
       </c>
       <c r="T25">
-        <v>0.009838778159189732</v>
+        <v>0.008659962259656477</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H26">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I26">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J26">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>0.8212394952509999</v>
+        <v>2.999176722568</v>
       </c>
       <c r="R26">
-        <v>7.391155457259</v>
+        <v>26.992590503112</v>
       </c>
       <c r="S26">
-        <v>3.0366839226013E-05</v>
+        <v>8.655112928124633E-05</v>
       </c>
       <c r="T26">
-        <v>3.0366839226013E-05</v>
+        <v>8.65511292812463E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H27">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I27">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J27">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>67.16010317733112</v>
+        <v>46.76776273118668</v>
       </c>
       <c r="R27">
-        <v>604.44092859598</v>
+        <v>420.9098645806801</v>
       </c>
       <c r="S27">
-        <v>0.002483368210347864</v>
+        <v>0.001349637934931597</v>
       </c>
       <c r="T27">
-        <v>0.002483368210347864</v>
+        <v>0.001349637934931597</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H28">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I28">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J28">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>62.35641886587867</v>
+        <v>55.33465001287134</v>
       </c>
       <c r="R28">
-        <v>561.207769792908</v>
+        <v>498.0118501158421</v>
       </c>
       <c r="S28">
-        <v>0.002305743156971914</v>
+        <v>0.001596863702948388</v>
       </c>
       <c r="T28">
-        <v>0.002305743156971914</v>
+        <v>0.001596863702948387</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H29">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I29">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J29">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>10.80056429587022</v>
+        <v>5.280604112267334</v>
       </c>
       <c r="R29">
-        <v>97.20507866283201</v>
+        <v>47.525437010406</v>
       </c>
       <c r="S29">
-        <v>0.0003993707090556638</v>
+        <v>0.0001523892359409203</v>
       </c>
       <c r="T29">
-        <v>0.0003993707090556639</v>
+        <v>0.0001523892359409202</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H30">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I30">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J30">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>25.16069294503722</v>
+        <v>17.899636943138</v>
       </c>
       <c r="R30">
-        <v>226.446236505335</v>
+        <v>161.096732488242</v>
       </c>
       <c r="S30">
-        <v>0.0009303628501738142</v>
+        <v>0.0005165530191986826</v>
       </c>
       <c r="T30">
-        <v>0.0009303628501738143</v>
+        <v>0.0005165530191986825</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4695343333333333</v>
+        <v>0.326966</v>
       </c>
       <c r="H31">
-        <v>1.408603</v>
+        <v>0.980898</v>
       </c>
       <c r="I31">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J31">
-        <v>0.00833172665303861</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>59.02383883465068</v>
+        <v>79.15502488509935</v>
       </c>
       <c r="R31">
-        <v>531.2145495118561</v>
+        <v>712.395223965894</v>
       </c>
       <c r="S31">
-        <v>0.002182514887263341</v>
+        <v>0.002284279129181982</v>
       </c>
       <c r="T31">
-        <v>0.002182514887263341</v>
+        <v>0.002284279129181982</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H32">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I32">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J32">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>18.39630270171</v>
+        <v>16.965978910036</v>
       </c>
       <c r="R32">
-        <v>165.56672431539</v>
+        <v>152.693810190324</v>
       </c>
       <c r="S32">
-        <v>0.0006802370925002294</v>
+        <v>0.0004896092394209128</v>
       </c>
       <c r="T32">
-        <v>0.0006802370925002295</v>
+        <v>0.0004896092394209127</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H33">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I33">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J33">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>1504.430308908423</v>
+        <v>264.5595606942067</v>
       </c>
       <c r="R33">
-        <v>13539.8727801758</v>
+        <v>2381.03604624786</v>
       </c>
       <c r="S33">
-        <v>0.05562907480892677</v>
+        <v>0.007634738082598884</v>
       </c>
       <c r="T33">
-        <v>0.05562907480892677</v>
+        <v>0.007634738082598883</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H34">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I34">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J34">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>1396.824633355853</v>
+        <v>313.0214028564343</v>
       </c>
       <c r="R34">
-        <v>12571.42170020268</v>
+        <v>2817.192625707909</v>
       </c>
       <c r="S34">
-        <v>0.05165015724808458</v>
+        <v>0.009033264263009788</v>
       </c>
       <c r="T34">
-        <v>0.05165015724808458</v>
+        <v>0.009033264263009788</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H35">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I35">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J35">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>241.9397158625245</v>
+        <v>29.87173690927634</v>
       </c>
       <c r="R35">
-        <v>2177.45744276272</v>
+        <v>268.845632183487</v>
       </c>
       <c r="S35">
-        <v>0.008946165517452444</v>
+        <v>0.0008620474224261168</v>
       </c>
       <c r="T35">
-        <v>0.008946165517452446</v>
+        <v>0.0008620474224261167</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H36">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I36">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J36">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>563.6160051705945</v>
+        <v>101.256074905301</v>
       </c>
       <c r="R36">
-        <v>5072.54404653535</v>
+        <v>911.3046741477091</v>
       </c>
       <c r="S36">
-        <v>0.02084073734056364</v>
+        <v>0.002922077770107649</v>
       </c>
       <c r="T36">
-        <v>0.02084073734056364</v>
+        <v>0.002922077770107649</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.51787666666667</v>
+        <v>1.849607</v>
       </c>
       <c r="H37">
-        <v>31.55363</v>
+        <v>5.548821</v>
       </c>
       <c r="I37">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J37">
-        <v>0.1866361352851859</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>1322.172657425974</v>
+        <v>447.7703740225404</v>
       </c>
       <c r="R37">
-        <v>11899.55391683376</v>
+        <v>4029.933366202863</v>
       </c>
       <c r="S37">
-        <v>0.04888976327765821</v>
+        <v>0.01292188994356874</v>
       </c>
       <c r="T37">
-        <v>0.04888976327765821</v>
+        <v>0.01292188994356874</v>
       </c>
     </row>
   </sheetData>
